--- a/filedatabase/khoa.xlsx
+++ b/filedatabase/khoa.xlsx
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>username</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -43,6 +40,9 @@
   </si>
   <si>
     <t>dien tu vien thong</t>
+  </si>
+  <si>
+    <t>_id</t>
   </si>
 </sst>
 </file>
@@ -384,7 +384,7 @@
   <dimension ref="D3:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -396,46 +396,46 @@
   <sheetData>
     <row r="3" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>1</v>
-      </c>
-      <c r="F3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="4" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4">
         <v>11111111</v>
       </c>
       <c r="F4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <v>11111111</v>
       </c>
       <c r="F5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="4:6" x14ac:dyDescent="0.25">
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>11111111</v>
       </c>
       <c r="F6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
